--- a/attendance-files/FA-II/FA-II (E) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (E) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="170">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1706,8 +1706,12 @@
       <c r="O7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
@@ -1739,7 +1743,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>20</v>
@@ -1768,8 +1772,12 @@
       <c r="O8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="P8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
       <c r="T8" s="40"/>
@@ -1797,11 +1805,11 @@
       </c>
       <c r="E9" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>20</v>
@@ -1830,8 +1838,12 @@
       <c r="O9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
+      <c r="P9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
       <c r="T9" s="40"/>
@@ -1863,7 +1875,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>20</v>
@@ -1892,8 +1904,12 @@
       <c r="O10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
+      <c r="P10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R10" s="40"/>
       <c r="S10" s="40"/>
       <c r="T10" s="40"/>
@@ -1925,7 +1941,7 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>20</v>
@@ -1954,8 +1970,12 @@
       <c r="O11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
+      <c r="P11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R11" s="40"/>
       <c r="S11" s="40"/>
       <c r="T11" s="40"/>
@@ -1983,11 +2003,11 @@
       </c>
       <c r="E12" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>20</v>
@@ -2016,8 +2036,12 @@
       <c r="O12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="P12" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
       <c r="T12" s="40"/>
@@ -2049,7 +2073,7 @@
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>20</v>
@@ -2078,8 +2102,12 @@
       <c r="O13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
+      <c r="P13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
@@ -2107,7 +2135,7 @@
       </c>
       <c r="E14" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
@@ -2140,8 +2168,12 @@
       <c r="O14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
+      <c r="P14" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="40"/>
@@ -2173,7 +2205,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>20</v>
@@ -2202,8 +2234,12 @@
       <c r="O15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
+      <c r="P15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R15" s="40"/>
       <c r="S15" s="40"/>
       <c r="T15" s="40"/>
@@ -2235,7 +2271,7 @@
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>21</v>
@@ -2264,8 +2300,12 @@
       <c r="O16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
+      <c r="P16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R16" s="40"/>
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
@@ -2293,11 +2333,11 @@
       </c>
       <c r="E17" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>20</v>
@@ -2326,8 +2366,12 @@
       <c r="O17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
+      <c r="P17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
       <c r="T17" s="40"/>
@@ -2355,11 +2399,11 @@
       </c>
       <c r="E18" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>20</v>
@@ -2388,8 +2432,12 @@
       <c r="O18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
+      <c r="P18" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R18" s="40"/>
       <c r="S18" s="40"/>
       <c r="T18" s="40"/>
@@ -2421,7 +2469,7 @@
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>20</v>
@@ -2450,8 +2498,12 @@
       <c r="O19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
+      <c r="P19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R19" s="40"/>
       <c r="S19" s="40"/>
       <c r="T19" s="40"/>
@@ -2483,7 +2535,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>20</v>
@@ -2512,8 +2564,12 @@
       <c r="O20" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
+      <c r="P20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R20" s="40"/>
       <c r="S20" s="40"/>
       <c r="T20" s="40"/>
@@ -2545,7 +2601,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>20</v>
@@ -2574,8 +2630,12 @@
       <c r="O21" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
+      <c r="P21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R21" s="40"/>
       <c r="S21" s="40"/>
       <c r="T21" s="40"/>
@@ -2603,11 +2663,11 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>20</v>
@@ -2636,8 +2696,12 @@
       <c r="O22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
+      <c r="P22" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R22" s="40"/>
       <c r="S22" s="40"/>
       <c r="T22" s="40"/>
@@ -2669,7 +2733,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>20</v>
@@ -2698,8 +2762,12 @@
       <c r="O23" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
+      <c r="P23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R23" s="40"/>
       <c r="S23" s="40"/>
       <c r="T23" s="40"/>
@@ -2731,7 +2799,7 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>21</v>
@@ -2760,8 +2828,12 @@
       <c r="O24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
+      <c r="P24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R24" s="40"/>
       <c r="S24" s="40"/>
       <c r="T24" s="40"/>
@@ -2793,7 +2865,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>20</v>
@@ -2822,8 +2894,12 @@
       <c r="O25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
+      <c r="P25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R25" s="40"/>
       <c r="S25" s="40"/>
       <c r="T25" s="40"/>
@@ -2855,7 +2931,7 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>20</v>
@@ -2884,8 +2960,12 @@
       <c r="O26" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
+      <c r="P26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R26" s="40"/>
       <c r="S26" s="40"/>
       <c r="T26" s="40"/>
@@ -2917,7 +2997,7 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>21</v>
@@ -2946,8 +3026,12 @@
       <c r="O27" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
+      <c r="P27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R27" s="40"/>
       <c r="S27" s="40"/>
       <c r="T27" s="40"/>
@@ -2979,7 +3063,7 @@
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>20</v>
@@ -3008,8 +3092,12 @@
       <c r="O28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
+      <c r="P28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R28" s="40"/>
       <c r="S28" s="40"/>
       <c r="T28" s="40"/>
@@ -3041,7 +3129,7 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>20</v>
@@ -3070,8 +3158,12 @@
       <c r="O29" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
+      <c r="P29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R29" s="40"/>
       <c r="S29" s="40"/>
       <c r="T29" s="40"/>
@@ -3103,7 +3195,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>20</v>
@@ -3132,8 +3224,12 @@
       <c r="O30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
+      <c r="P30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R30" s="40"/>
       <c r="S30" s="40"/>
       <c r="T30" s="40"/>
@@ -3165,7 +3261,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>21</v>
@@ -3194,8 +3290,12 @@
       <c r="O31" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
+      <c r="P31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R31" s="40"/>
       <c r="S31" s="40"/>
       <c r="T31" s="40"/>
@@ -3227,7 +3327,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>21</v>
@@ -3256,8 +3356,12 @@
       <c r="O32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
+      <c r="P32" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R32" s="40"/>
       <c r="S32" s="40"/>
       <c r="T32" s="40"/>
@@ -3289,7 +3393,7 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>20</v>
@@ -3318,8 +3422,12 @@
       <c r="O33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
+      <c r="P33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R33" s="40"/>
       <c r="S33" s="40"/>
       <c r="T33" s="40"/>
@@ -3351,7 +3459,7 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>20</v>
@@ -3380,8 +3488,12 @@
       <c r="O34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
+      <c r="P34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R34" s="40"/>
       <c r="S34" s="40"/>
       <c r="T34" s="40"/>
@@ -3413,7 +3525,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>20</v>
@@ -3442,8 +3554,12 @@
       <c r="O35" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
+      <c r="P35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R35" s="40"/>
       <c r="S35" s="40"/>
       <c r="T35" s="40"/>
@@ -3475,7 +3591,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>20</v>
@@ -3504,8 +3620,12 @@
       <c r="O36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
+      <c r="P36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -3537,7 +3657,7 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G37" s="30" t="s">
         <v>20</v>
@@ -3566,8 +3686,12 @@
       <c r="O37" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
+      <c r="P37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R37" s="40"/>
       <c r="S37" s="40"/>
       <c r="T37" s="40"/>
@@ -3599,7 +3723,7 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>20</v>
@@ -3628,8 +3752,12 @@
       <c r="O38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
+      <c r="P38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R38" s="40"/>
       <c r="S38" s="40"/>
       <c r="T38" s="40"/>
@@ -3661,7 +3789,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>20</v>
@@ -3690,8 +3818,12 @@
       <c r="O39" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
+      <c r="P39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R39" s="40"/>
       <c r="S39" s="40"/>
       <c r="T39" s="40"/>
@@ -3723,7 +3855,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>20</v>
@@ -3752,8 +3884,12 @@
       <c r="O40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
+      <c r="P40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R40" s="40"/>
       <c r="S40" s="40"/>
       <c r="T40" s="40"/>
@@ -3781,11 +3917,11 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" s="30" t="s">
         <v>20</v>
@@ -3814,8 +3950,12 @@
       <c r="O41" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
+      <c r="P41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R41" s="40"/>
       <c r="S41" s="40"/>
       <c r="T41" s="40"/>
@@ -3847,7 +3987,7 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>20</v>
@@ -3876,8 +4016,12 @@
       <c r="O42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
+      <c r="P42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R42" s="40"/>
       <c r="S42" s="40"/>
       <c r="T42" s="40"/>
@@ -3909,7 +4053,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G43" s="30" t="s">
         <v>20</v>
@@ -3938,8 +4082,12 @@
       <c r="O43" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
+      <c r="P43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R43" s="40"/>
       <c r="S43" s="40"/>
       <c r="T43" s="40"/>
@@ -3971,7 +4119,7 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44" s="30" t="s">
         <v>20</v>
@@ -4000,8 +4148,12 @@
       <c r="O44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
+      <c r="P44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R44" s="40"/>
       <c r="S44" s="40"/>
       <c r="T44" s="40"/>
@@ -4033,7 +4185,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>20</v>
@@ -4062,8 +4214,12 @@
       <c r="O45" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
+      <c r="P45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R45" s="40"/>
       <c r="S45" s="40"/>
       <c r="T45" s="40"/>
@@ -4095,7 +4251,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G46" s="30" t="s">
         <v>20</v>
@@ -4124,8 +4280,12 @@
       <c r="O46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
+      <c r="P46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R46" s="40"/>
       <c r="S46" s="40"/>
       <c r="T46" s="40"/>
@@ -4153,11 +4313,11 @@
       </c>
       <c r="E47" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>21</v>
@@ -4186,8 +4346,12 @@
       <c r="O47" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
+      <c r="P47" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R47" s="40"/>
       <c r="S47" s="40"/>
       <c r="T47" s="40"/>
@@ -4219,7 +4383,7 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>21</v>
@@ -4248,8 +4412,12 @@
       <c r="O48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
+      <c r="P48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R48" s="40"/>
       <c r="S48" s="40"/>
       <c r="T48" s="40"/>
@@ -4277,11 +4445,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G49" s="30" t="s">
         <v>20</v>
@@ -4310,8 +4478,12 @@
       <c r="O49" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
+      <c r="P49" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R49" s="40"/>
       <c r="S49" s="40"/>
       <c r="T49" s="40"/>
@@ -4343,7 +4515,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>20</v>
@@ -4372,8 +4544,12 @@
       <c r="O50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
+      <c r="P50" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R50" s="40"/>
       <c r="S50" s="40"/>
       <c r="T50" s="40"/>
@@ -4405,7 +4581,7 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="30" t="s">
         <v>20</v>
@@ -4434,8 +4610,12 @@
       <c r="O51" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
+      <c r="P51" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R51" s="40"/>
       <c r="S51" s="40"/>
       <c r="T51" s="40"/>
@@ -4467,7 +4647,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>20</v>
@@ -4496,8 +4676,12 @@
       <c r="O52" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
+      <c r="P52" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R52" s="40"/>
       <c r="S52" s="40"/>
       <c r="T52" s="40"/>
@@ -4529,7 +4713,7 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>21</v>
@@ -4558,8 +4742,12 @@
       <c r="O53" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
+      <c r="P53" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R53" s="40"/>
       <c r="S53" s="40"/>
       <c r="T53" s="40"/>
@@ -4587,7 +4775,7 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
@@ -4620,8 +4808,12 @@
       <c r="O54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
+      <c r="P54" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R54" s="40"/>
       <c r="S54" s="40"/>
       <c r="T54" s="40"/>
@@ -4649,11 +4841,11 @@
       </c>
       <c r="E55" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" s="30" t="s">
         <v>20</v>
@@ -4682,8 +4874,12 @@
       <c r="O55" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
+      <c r="P55" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R55" s="40"/>
       <c r="S55" s="40"/>
       <c r="T55" s="40"/>
@@ -4711,11 +4907,11 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G56" s="30" t="s">
         <v>20</v>
@@ -4744,8 +4940,12 @@
       <c r="O56" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
+      <c r="P56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R56" s="40"/>
       <c r="S56" s="40"/>
       <c r="T56" s="40"/>
@@ -4777,7 +4977,7 @@
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="30" t="s">
         <v>20</v>
@@ -4806,8 +5006,12 @@
       <c r="O57" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
+      <c r="P57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R57" s="40"/>
       <c r="S57" s="40"/>
       <c r="T57" s="40"/>
@@ -4835,11 +5039,11 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G58" s="30" t="s">
         <v>20</v>
@@ -4868,8 +5072,12 @@
       <c r="O58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
+      <c r="P58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R58" s="40"/>
       <c r="S58" s="40"/>
       <c r="T58" s="40"/>
@@ -4897,11 +5105,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" s="30" t="s">
         <v>20</v>
@@ -4930,8 +5138,12 @@
       <c r="O59" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
+      <c r="P59" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R59" s="40"/>
       <c r="S59" s="40"/>
       <c r="T59" s="40"/>
@@ -4963,7 +5175,7 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G60" s="30" t="s">
         <v>20</v>
@@ -4992,8 +5204,12 @@
       <c r="O60" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
+      <c r="P60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R60" s="40"/>
       <c r="S60" s="40"/>
       <c r="T60" s="40"/>
@@ -5025,7 +5241,7 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G61" s="30" t="s">
         <v>20</v>
@@ -5054,8 +5270,12 @@
       <c r="O61" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
+      <c r="P61" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R61" s="40"/>
       <c r="S61" s="40"/>
       <c r="T61" s="40"/>
@@ -5087,7 +5307,7 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G62" s="30" t="s">
         <v>20</v>
@@ -5116,8 +5336,12 @@
       <c r="O62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
+      <c r="P62" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R62" s="40"/>
       <c r="S62" s="40"/>
       <c r="T62" s="40"/>
@@ -5145,11 +5369,11 @@
       </c>
       <c r="E63" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" s="30" t="s">
         <v>20</v>
@@ -5178,8 +5402,12 @@
       <c r="O63" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
+      <c r="P63" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R63" s="40"/>
       <c r="S63" s="40"/>
       <c r="T63" s="40"/>
@@ -5211,7 +5439,7 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G64" s="30" t="s">
         <v>20</v>
@@ -5240,8 +5468,12 @@
       <c r="O64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
+      <c r="P64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R64" s="40"/>
       <c r="S64" s="40"/>
       <c r="T64" s="40"/>
@@ -5269,11 +5501,11 @@
       </c>
       <c r="E65" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" s="30" t="s">
         <v>20</v>
@@ -5302,8 +5534,12 @@
       <c r="O65" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
+      <c r="P65" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R65" s="40"/>
       <c r="S65" s="40"/>
       <c r="T65" s="40"/>
@@ -5331,7 +5567,7 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
@@ -5364,8 +5600,12 @@
       <c r="O66" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
+      <c r="P66" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R66" s="40"/>
       <c r="S66" s="40"/>
       <c r="T66" s="40"/>
@@ -5397,7 +5637,7 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G67" s="30" t="s">
         <v>20</v>
@@ -5426,8 +5666,12 @@
       <c r="O67" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
+      <c r="P67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R67" s="40"/>
       <c r="S67" s="40"/>
       <c r="T67" s="40"/>
@@ -5459,7 +5703,7 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G68" s="30" t="s">
         <v>20</v>
@@ -5488,8 +5732,12 @@
       <c r="O68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
+      <c r="P68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R68" s="40"/>
       <c r="S68" s="40"/>
       <c r="T68" s="40"/>
@@ -5521,7 +5769,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G69" s="30" t="s">
         <v>20</v>
@@ -5550,8 +5798,12 @@
       <c r="O69" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
+      <c r="P69" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R69" s="40"/>
       <c r="S69" s="40"/>
       <c r="T69" s="40"/>
@@ -5579,11 +5831,11 @@
       </c>
       <c r="E70" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" s="30" t="s">
         <v>20</v>
@@ -5612,8 +5864,12 @@
       <c r="O70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
+      <c r="P70" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q70" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R70" s="40"/>
       <c r="S70" s="40"/>
       <c r="T70" s="40"/>
@@ -5645,7 +5901,7 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G71" s="30" t="s">
         <v>20</v>
@@ -5674,8 +5930,12 @@
       <c r="O71" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
+      <c r="P71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R71" s="40"/>
       <c r="S71" s="40"/>
       <c r="T71" s="40"/>
@@ -5707,7 +5967,7 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72" s="32" t="s">
         <v>21</v>
@@ -5736,8 +5996,12 @@
       <c r="O72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
+      <c r="P72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R72" s="40"/>
       <c r="S72" s="40"/>
       <c r="T72" s="40"/>
@@ -5765,7 +6029,7 @@
       </c>
       <c r="E73" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
@@ -5798,8 +6062,12 @@
       <c r="O73" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
+      <c r="P73" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R73" s="40"/>
       <c r="S73" s="40"/>
       <c r="T73" s="40"/>
@@ -5827,7 +6095,7 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
@@ -5860,8 +6128,12 @@
       <c r="O74" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
+      <c r="P74" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q74" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R74" s="40"/>
       <c r="S74" s="40"/>
       <c r="T74" s="40"/>
@@ -5893,7 +6165,7 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G75" s="30" t="s">
         <v>20</v>
@@ -5922,8 +6194,12 @@
       <c r="O75" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
+      <c r="P75" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R75" s="40"/>
       <c r="S75" s="40"/>
       <c r="T75" s="40"/>
@@ -5951,11 +6227,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" s="30" t="s">
         <v>20</v>
@@ -5984,8 +6260,12 @@
       <c r="O76" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
+      <c r="P76" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R76" s="40"/>
       <c r="S76" s="40"/>
       <c r="T76" s="40"/>
@@ -6013,11 +6293,11 @@
       </c>
       <c r="E77" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>20</v>
@@ -6046,8 +6326,12 @@
       <c r="O77" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
+      <c r="P77" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R77" s="40"/>
       <c r="S77" s="40"/>
       <c r="T77" s="40"/>
@@ -6079,7 +6363,7 @@
       </c>
       <c r="F78" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G78" s="30" t="s">
         <v>20</v>
@@ -6108,8 +6392,12 @@
       <c r="O78" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
+      <c r="P78" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R78" s="40"/>
       <c r="S78" s="40"/>
       <c r="T78" s="40"/>
@@ -6137,11 +6425,11 @@
       </c>
       <c r="E79" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G79" s="30" t="s">
         <v>20</v>
@@ -6170,8 +6458,12 @@
       <c r="O79" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
+      <c r="P79" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q79" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R79" s="40"/>
       <c r="S79" s="40"/>
       <c r="T79" s="40"/>
@@ -6199,11 +6491,11 @@
       </c>
       <c r="E80" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G80" s="30" t="s">
         <v>20</v>
@@ -6232,8 +6524,12 @@
       <c r="O80" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
+      <c r="P80" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q80" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="R80" s="40"/>
       <c r="S80" s="40"/>
       <c r="T80" s="40"/>
@@ -6261,11 +6557,11 @@
       </c>
       <c r="E81" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G81" s="30" t="s">
         <v>20</v>
@@ -6294,8 +6590,12 @@
       <c r="O81" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
+      <c r="P81" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="R81" s="40"/>
       <c r="S81" s="40"/>
       <c r="T81" s="40"/>
@@ -6332,8 +6632,8 @@
       <c r="M82" s="40"/>
       <c r="N82" s="40"/>
       <c r="O82" s="39"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
       <c r="R82" s="40"/>
       <c r="S82" s="40"/>
       <c r="T82" s="40"/>
@@ -6370,8 +6670,8 @@
       <c r="M83" s="40"/>
       <c r="N83" s="40"/>
       <c r="O83" s="45"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31"/>
       <c r="R83" s="40"/>
       <c r="S83" s="40"/>
       <c r="T83" s="40"/>
@@ -6408,8 +6708,8 @@
       <c r="M84" s="40"/>
       <c r="N84" s="40"/>
       <c r="O84" s="45"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
       <c r="R84" s="40"/>
       <c r="S84" s="40"/>
       <c r="T84" s="40"/>
@@ -6446,8 +6746,8 @@
       <c r="M85" s="40"/>
       <c r="N85" s="40"/>
       <c r="O85" s="45"/>
-      <c r="P85" s="40"/>
-      <c r="Q85" s="40"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="31"/>
       <c r="R85" s="40"/>
       <c r="S85" s="40"/>
       <c r="T85" s="40"/>
@@ -6484,8 +6784,8 @@
       <c r="M86" s="40"/>
       <c r="N86" s="40"/>
       <c r="O86" s="45"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
       <c r="R86" s="40"/>
       <c r="S86" s="40"/>
       <c r="T86" s="40"/>
@@ -6522,8 +6822,8 @@
       <c r="M87" s="40"/>
       <c r="N87" s="40"/>
       <c r="O87" s="45"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="40"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
       <c r="R87" s="40"/>
       <c r="S87" s="40"/>
       <c r="T87" s="40"/>
@@ -6560,8 +6860,8 @@
       <c r="M88" s="40"/>
       <c r="N88" s="40"/>
       <c r="O88" s="45"/>
-      <c r="P88" s="40"/>
-      <c r="Q88" s="40"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
       <c r="R88" s="40"/>
       <c r="S88" s="40"/>
       <c r="T88" s="40"/>
@@ -6598,8 +6898,8 @@
       <c r="M89" s="40"/>
       <c r="N89" s="40"/>
       <c r="O89" s="45"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40"/>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="31"/>
       <c r="R89" s="40"/>
       <c r="S89" s="40"/>
       <c r="T89" s="40"/>
@@ -6636,8 +6936,8 @@
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
       <c r="O90" s="45"/>
-      <c r="P90" s="40"/>
-      <c r="Q90" s="40"/>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="31"/>
       <c r="R90" s="40"/>
       <c r="S90" s="40"/>
       <c r="T90" s="40"/>
@@ -6674,8 +6974,8 @@
       <c r="M91" s="40"/>
       <c r="N91" s="40"/>
       <c r="O91" s="45"/>
-      <c r="P91" s="40"/>
-      <c r="Q91" s="40"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="31"/>
       <c r="R91" s="40"/>
       <c r="S91" s="40"/>
       <c r="T91" s="40"/>
@@ -6712,8 +7012,8 @@
       <c r="M92" s="40"/>
       <c r="N92" s="40"/>
       <c r="O92" s="45"/>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="40"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
       <c r="R92" s="40"/>
       <c r="S92" s="40"/>
       <c r="T92" s="40"/>

--- a/attendance-files/FA-II/FA-II (E) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (E) Attendance Sheet.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5iu9XQ/lli2g0eK04UsTwAi6EAgXzvyWixjZBxqOpfY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="0epBWMSeDmH/2Mwaj7vbazZrCsTp+jcUPcldXHcqGyM="/>
     </ext>
   </extLst>
 </workbook>
@@ -7140,7 +7140,6 @@
       <c r="AA95" s="40"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="H96" s="31"/>
       <c r="K96" s="49"/>
       <c r="O96" s="50"/>
     </row>
@@ -7221,7 +7220,6 @@
       <c r="O115" s="50"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="K116" s="49"/>
       <c r="O116" s="50"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
@@ -9872,9 +9870,6 @@
     </row>
     <row r="999" ht="15.75" customHeight="1">
       <c r="O999" s="50"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="O1000" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="7">
